--- a/manifest_table.xlsx
+++ b/manifest_table.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t xml:space="preserve">STUDY</t>
   </si>
@@ -50,66 +50,6 @@
   </si>
   <si>
     <t xml:space="preserve">FASTA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f</t>
-  </si>
-  <si>
-    <t xml:space="preserve">g</t>
-  </si>
-  <si>
-    <t xml:space="preserve">h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">j</t>
-  </si>
-  <si>
-    <t xml:space="preserve">t</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">r</t>
-  </si>
-  <si>
-    <t xml:space="preserve">q</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p</t>
-  </si>
-  <si>
-    <t xml:space="preserve">o</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">l</t>
-  </si>
-  <si>
-    <t xml:space="preserve">k</t>
   </si>
 </sst>
 </file>
@@ -124,6 +64,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -145,6 +86,7 @@
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -215,17 +157,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="16.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="16.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="14.49"/>
   </cols>
   <sheetData>
@@ -259,70 +201,6 @@
       </c>
       <c r="J1" s="1" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" s="0" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" s="0" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
